--- a/results/overview/summary_average.xlsx
+++ b/results/overview/summary_average.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>REC</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>walltime</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mean_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +483,12 @@
       <c r="E2" t="n">
         <v>59.41</v>
       </c>
+      <c r="F2" t="n">
+        <v>5079.660954475403</v>
+      </c>
+      <c r="G2" t="n">
+        <v>423.3050795396169</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +508,12 @@
       <c r="E3" t="n">
         <v>61.42</v>
       </c>
+      <c r="F3" t="n">
+        <v>59.07081985473633</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.922568321228027</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +533,12 @@
       <c r="E4" t="n">
         <v>54.16</v>
       </c>
+      <c r="F4" t="n">
+        <v>1364.714178800583</v>
+      </c>
+      <c r="G4" t="n">
+        <v>113.7261815667152</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -519,16 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.38</v>
+        <v>64.69</v>
       </c>
       <c r="C5" t="n">
-        <v>62.39</v>
+        <v>63.02</v>
       </c>
       <c r="D5" t="n">
-        <v>61.69</v>
+        <v>62.14</v>
       </c>
       <c r="E5" t="n">
-        <v>63.38</v>
+        <v>64.69</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7841.706496715546</v>
+      </c>
+      <c r="G5" t="n">
+        <v>653.4755413929621</v>
       </c>
     </row>
     <row r="6">
@@ -549,6 +583,12 @@
       <c r="E6" t="n">
         <v>62.81</v>
       </c>
+      <c r="F6" t="n">
+        <v>59.53350234031677</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.961125195026398</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -567,6 +607,12 @@
       </c>
       <c r="E7" t="n">
         <v>64.40000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13682.71487140656</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13682.71487140656</v>
       </c>
     </row>
   </sheetData>

--- a/results/overview/summary_average.xlsx
+++ b/results/overview/summary_average.xlsx
@@ -509,10 +509,10 @@
         <v>61.42</v>
       </c>
       <c r="F3" t="n">
-        <v>59.07081985473633</v>
+        <v>60.21871781349182</v>
       </c>
       <c r="G3" t="n">
-        <v>4.922568321228027</v>
+        <v>5.018226484457652</v>
       </c>
     </row>
     <row r="4">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.40000000000001</v>
+        <v>59.13</v>
       </c>
       <c r="C7" t="n">
-        <v>63.18</v>
+        <v>55.69</v>
       </c>
       <c r="D7" t="n">
-        <v>62.22</v>
+        <v>55.25</v>
       </c>
       <c r="E7" t="n">
-        <v>64.40000000000001</v>
+        <v>59.13</v>
       </c>
       <c r="F7" t="n">
-        <v>13682.71487140656</v>
+        <v>244865.2185502052</v>
       </c>
       <c r="G7" t="n">
-        <v>13682.71487140656</v>
+        <v>122432.6092751026</v>
       </c>
     </row>
   </sheetData>

--- a/results/overview/summary_average.xlsx
+++ b/results/overview/summary_average.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,151 +468,176 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>ComplementNB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.41</v>
+        <v>61.42</v>
       </c>
       <c r="C2" t="n">
-        <v>46.82</v>
+        <v>59.44</v>
       </c>
       <c r="D2" t="n">
-        <v>53.99</v>
+        <v>59.03</v>
       </c>
       <c r="E2" t="n">
-        <v>59.41</v>
+        <v>61.42</v>
       </c>
       <c r="F2" t="n">
-        <v>5079.660954475403</v>
+        <v>60.21871781349182</v>
       </c>
       <c r="G2" t="n">
-        <v>423.3050795396169</v>
+        <v>5.018226484457652</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ComplementNB</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.42</v>
+        <v>54.16</v>
       </c>
       <c r="C3" t="n">
-        <v>59.44</v>
+        <v>52.66</v>
       </c>
       <c r="D3" t="n">
-        <v>59.03</v>
+        <v>51.61</v>
       </c>
       <c r="E3" t="n">
-        <v>61.42</v>
+        <v>54.16</v>
       </c>
       <c r="F3" t="n">
-        <v>60.21871781349182</v>
+        <v>1364.714178800583</v>
       </c>
       <c r="G3" t="n">
-        <v>5.018226484457652</v>
+        <v>113.7261815667152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>LR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.16</v>
+        <v>64.69</v>
       </c>
       <c r="C4" t="n">
-        <v>52.66</v>
+        <v>63.02</v>
       </c>
       <c r="D4" t="n">
-        <v>51.61</v>
+        <v>62.14</v>
       </c>
       <c r="E4" t="n">
-        <v>54.16</v>
+        <v>64.69</v>
       </c>
       <c r="F4" t="n">
-        <v>1364.714178800583</v>
+        <v>7841.706496715546</v>
       </c>
       <c r="G4" t="n">
-        <v>113.7261815667152</v>
+        <v>653.4755413929621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>MultinomialNB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.69</v>
+        <v>62.81</v>
       </c>
       <c r="C5" t="n">
-        <v>63.02</v>
+        <v>57.04</v>
       </c>
       <c r="D5" t="n">
-        <v>62.14</v>
+        <v>57.5</v>
       </c>
       <c r="E5" t="n">
-        <v>64.69</v>
+        <v>62.81</v>
       </c>
       <c r="F5" t="n">
-        <v>7841.706496715546</v>
+        <v>59.53350234031677</v>
       </c>
       <c r="G5" t="n">
-        <v>653.4755413929621</v>
+        <v>4.961125195026398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MultinomialNB</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.81</v>
+        <v>59.41</v>
       </c>
       <c r="C6" t="n">
-        <v>57.04</v>
+        <v>46.82</v>
       </c>
       <c r="D6" t="n">
-        <v>57.5</v>
+        <v>53.99</v>
       </c>
       <c r="E6" t="n">
-        <v>62.81</v>
+        <v>59.41</v>
       </c>
       <c r="F6" t="n">
-        <v>59.53350234031677</v>
+        <v>5079.660954475403</v>
       </c>
       <c r="G6" t="n">
-        <v>4.961125195026398</v>
+        <v>423.3050795396169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>setfit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="C7" t="n">
+        <v>65.29000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1915.019298315048</v>
+      </c>
+      <c r="G7" t="n">
+        <v>159.584941526254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>59.13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>55.69</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>59.13</v>
-      </c>
-      <c r="F7" t="n">
-        <v>244865.2185502052</v>
-      </c>
-      <c r="G7" t="n">
-        <v>122432.6092751026</v>
+      <c r="B8" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.68</v>
+      </c>
+      <c r="E8" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>438370.2274112701</v>
+      </c>
+      <c r="G8" t="n">
+        <v>54796.27842640877</v>
       </c>
     </row>
   </sheetData>

--- a/results/overview/summary_average.xlsx
+++ b/results/overview/summary_average.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,175 +468,350 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ComplementNB</t>
+          <t>siebert</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.42</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>59.44</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>59.03</v>
+        <v>69.36</v>
       </c>
       <c r="E2" t="n">
-        <v>61.42</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>60.21871781349182</v>
+        <v>358885.2308113575</v>
       </c>
       <c r="G2" t="n">
-        <v>5.018226484457652</v>
+        <v>29907.10256761312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.16</v>
+        <v>65.12</v>
       </c>
       <c r="C3" t="n">
-        <v>52.66</v>
+        <v>62.78</v>
       </c>
       <c r="D3" t="n">
-        <v>51.61</v>
+        <v>61.75</v>
       </c>
       <c r="E3" t="n">
-        <v>54.16</v>
+        <v>65.12</v>
       </c>
       <c r="F3" t="n">
-        <v>1364.714178800583</v>
+        <v>18304.4948797226</v>
       </c>
       <c r="G3" t="n">
-        <v>113.7261815667152</v>
+        <v>1525.374573310216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>few_shot_gpt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.69</v>
+        <v>35.05</v>
       </c>
       <c r="C4" t="n">
-        <v>63.02</v>
+        <v>31.91</v>
       </c>
       <c r="D4" t="n">
-        <v>62.14</v>
+        <v>36.89</v>
       </c>
       <c r="E4" t="n">
-        <v>64.69</v>
+        <v>35.05</v>
       </c>
       <c r="F4" t="n">
-        <v>7841.706496715546</v>
+        <v>6871.455743312836</v>
       </c>
       <c r="G4" t="n">
-        <v>653.4755413929621</v>
+        <v>572.6213119427363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MultinomialNB</t>
+          <t>nlptown</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.81</v>
+        <v>71.06</v>
       </c>
       <c r="C5" t="n">
-        <v>57.04</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>57.5</v>
+        <v>68.02</v>
       </c>
       <c r="E5" t="n">
-        <v>62.81</v>
+        <v>71.06</v>
       </c>
       <c r="F5" t="n">
-        <v>59.53350234031677</v>
+        <v>21319.15497875214</v>
       </c>
       <c r="G5" t="n">
-        <v>4.961125195026398</v>
+        <v>1776.596248229345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.41</v>
+        <v>68.3</v>
       </c>
       <c r="C6" t="n">
-        <v>46.82</v>
+        <v>64.58</v>
       </c>
       <c r="D6" t="n">
-        <v>53.99</v>
+        <v>64.3</v>
       </c>
       <c r="E6" t="n">
-        <v>59.41</v>
+        <v>68.3</v>
       </c>
       <c r="F6" t="n">
-        <v>5079.660954475403</v>
+        <v>43788.33863925934</v>
       </c>
       <c r="G6" t="n">
-        <v>423.3050795396169</v>
+        <v>3649.028219938278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>setfit</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.89</v>
+        <v>59.41</v>
       </c>
       <c r="C7" t="n">
-        <v>65.29000000000001</v>
+        <v>46.82</v>
       </c>
       <c r="D7" t="n">
-        <v>70.23999999999999</v>
+        <v>53.99</v>
       </c>
       <c r="E7" t="n">
-        <v>63.89</v>
+        <v>59.41</v>
       </c>
       <c r="F7" t="n">
-        <v>1915.019298315048</v>
+        <v>5079.660954475403</v>
       </c>
       <c r="G7" t="n">
-        <v>159.584941526254</v>
+        <v>423.3050795396169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>distilbert</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57.33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55</v>
+      </c>
+      <c r="E8" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19519.6691660881</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1626.639097174009</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="C9" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="F9" t="n">
+        <v>180685.4983010292</v>
+      </c>
+      <c r="G9" t="n">
+        <v>90342.7491505146</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ComplementNB</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61.42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>59.44</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59.03</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61.42</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60.21871781349182</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.018226484457652</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52.66</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.61</v>
+      </c>
+      <c r="E11" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1364.714178800583</v>
+      </c>
+      <c r="G11" t="n">
+        <v>113.7261815667152</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>setfit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="D12" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3540.192408084869</v>
+      </c>
+      <c r="G12" t="n">
+        <v>295.0160340070724</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="C13" t="n">
+        <v>63.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>62.14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7841.706496715546</v>
+      </c>
+      <c r="G13" t="n">
+        <v>653.4755413929621</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MultinomialNB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>62.81</v>
+      </c>
+      <c r="C14" t="n">
+        <v>57.04</v>
+      </c>
+      <c r="D14" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>62.81</v>
+      </c>
+      <c r="F14" t="n">
+        <v>59.53350234031677</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.961125195026398</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B15" t="n">
         <v>64.62</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C15" t="n">
         <v>62.42</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D15" t="n">
         <v>61.68</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E15" t="n">
         <v>64.62</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F15" t="n">
         <v>438370.2274112701</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G15" t="n">
         <v>54796.27842640877</v>
       </c>
     </row>
